--- a/budget.xlsx
+++ b/budget.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Total</t>
   </si>
@@ -107,12 +107,6 @@
     <t>https://www.amazon.ca/Adafruit-MCP3008-8-Channel-10-Bit-Interface-ADA856/dp/B00NAY3RB2/</t>
   </si>
   <si>
-    <t xml:space="preserve">                Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 No</t>
-  </si>
-  <si>
     <t>Adafruit MCP3008-8-Channel 10-Bit ADC with SPI Interface [ADA856]</t>
   </si>
   <si>
@@ -150,6 +144,21 @@
   </si>
   <si>
     <t>USD to CAD</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BALTEJ BAL</t>
+  </si>
+  <si>
+    <t>N01166978</t>
   </si>
 </sst>
 </file>
@@ -159,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +196,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,21 +232,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -240,6 +279,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -257,6 +297,19 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -354,26 +407,26 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Name " totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Supplier "/>
+    <tableColumn id="1" name="Name " totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Supplier " dataDxfId="3" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" name="Price/Unit(CAD)"/>
     <tableColumn id="5" name="Price/Unit(USD)"/>
     <tableColumn id="6" name="Quantity"/>
     <tableColumn id="7" name="Taxes"/>
     <tableColumn id="8" name="Shipping"/>
     <tableColumn id="9" name="Subtotal"/>
-    <tableColumn id="10" name="Owned"/>
+    <tableColumn id="10" name="Owned" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="H8:I11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G8:H11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="2">
-    <tableColumn id="1" name="Total Owned" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" name="Total Owned" headerRowDxfId="7" dataDxfId="0"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,32 +729,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -727,231 +785,237 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2">
         <v>35</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>4.55</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>16.46</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>15.6</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
         <v>135.6</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>34.270000000000003</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>8</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>5.5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>47.77</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
         <v>11.99</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>5.5</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
         <v>17.489999999999998</v>
       </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>849</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>110.37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
         <v>959.37</v>
       </c>
-      <c r="J7" t="s">
-        <v>22</v>
+      <c r="J7" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1094.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="8">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1245.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="5">
-        <v>1094.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="5">
-        <v>150.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1245.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="8">
         <v>75.64</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -963,9 +1027,10 @@
     <hyperlink ref="C7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="62" orientation="landscape" r:id="rId6"/>
   <tableParts count="2">
-    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/budget.xlsx
+++ b/budget.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n01166978\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balib\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0271CE0F-3841-47BE-9F0C-D0B363C2FCD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -94,79 +90,76 @@
 (SEN-11574)</t>
   </si>
   <si>
+    <t>https://www.amazon.ca/Adafruit-MCP3008-8-Channel-10-Bit-Interface-ADA856/dp/B00NAY3RB2/</t>
+  </si>
+  <si>
+    <t>Adafruit MCP3008-8-Channel 10-Bit ADC with SPI Interface [ADA856]</t>
+  </si>
+  <si>
+    <t>MCP3008 ADC</t>
+  </si>
+  <si>
+    <t>$                          -</t>
+  </si>
+  <si>
+    <t>$                 -</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/1.44inch-lcd-hat.htm</t>
+  </si>
+  <si>
+    <t>128x128, 1.44inch LCD display HAT for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>LCD Display</t>
+  </si>
+  <si>
+    <t>Acer Aspire 15.6" Laptop</t>
+  </si>
+  <si>
+    <t>(Intel Core i5-8265U/256GB SSD/8GB RAM/Windows 10)</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.ca/en-ca/product/acer-aspire-15-6-laptop-intel-core-i5-8265u-256gb-ssd-8gb-ram-windows-10/13642535</t>
+  </si>
+  <si>
+    <t>Total Owned</t>
+  </si>
+  <si>
+    <t>Total Unowned</t>
+  </si>
+  <si>
+    <t>USD to CAD</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BALTEJ BAL</t>
+  </si>
+  <si>
+    <t>N01166978</t>
+  </si>
+  <si>
+    <t>https://www.iphacogoods.com/1pcs-heart-rate-pulse-sensor-pulsesensor-sensor-module-for-arduino-new-p-275826.htm</t>
+  </si>
+  <si>
     <t>Pulse Sensor Board
-24-inch Color-Coded Cable with Standard Male Headers
-Ear Clip for Earlobe Heart Rate Measurement
-Velcro Finger Strap
-Transparent Stickers to Protect Sensor</t>
-  </si>
-  <si>
-    <t>https://www.robotshop.com/ca/en/checkout/onepage/</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Adafruit-MCP3008-8-Channel-10-Bit-Interface-ADA856/dp/B00NAY3RB2/</t>
-  </si>
-  <si>
-    <t>Adafruit MCP3008-8-Channel 10-Bit ADC with SPI Interface [ADA856]</t>
-  </si>
-  <si>
-    <t>MCP3008 ADC</t>
-  </si>
-  <si>
-    <t>$                          -</t>
-  </si>
-  <si>
-    <t>$                 -</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/1.44inch-lcd-hat.htm</t>
-  </si>
-  <si>
-    <t>128x128, 1.44inch LCD display HAT for Raspberry Pi</t>
-  </si>
-  <si>
-    <t>LCD Display</t>
-  </si>
-  <si>
-    <t>Acer Aspire 15.6" Laptop</t>
-  </si>
-  <si>
-    <t>(Intel Core i5-8265U/256GB SSD/8GB RAM/Windows 10)</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.ca/en-ca/product/acer-aspire-15-6-laptop-intel-core-i5-8265u-256gb-ssd-8gb-ram-windows-10/13642535</t>
-  </si>
-  <si>
-    <t>Total Owned</t>
-  </si>
-  <si>
-    <t>Total Unowned</t>
-  </si>
-  <si>
-    <t>USD to CAD</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BALTEJ BAL</t>
-  </si>
-  <si>
-    <t>N01166978</t>
+24-inch Color-Coded Cable with Standard Male Header</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -237,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -251,7 +244,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,19 +290,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -363,21 +361,16 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J7">
-  <autoFilter ref="A1:J7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J7">
+  <autoFilter ref="A1:J7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -407,26 +400,26 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Name " totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Supplier " dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Price/Unit(CAD)"/>
-    <tableColumn id="5" name="Price/Unit(USD)"/>
-    <tableColumn id="6" name="Quantity"/>
-    <tableColumn id="7" name="Taxes"/>
-    <tableColumn id="8" name="Shipping"/>
-    <tableColumn id="9" name="Subtotal"/>
-    <tableColumn id="10" name="Owned" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name " totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier " dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Price/Unit(CAD)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price/Unit(USD)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Taxes"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Shipping"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Subtotal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owned" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G8:H11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="G8:H11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="2">
-    <tableColumn id="1" name="Total Owned" headerRowDxfId="7" dataDxfId="0"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="6" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Total Owned" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -728,14 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>35</v>
@@ -813,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -830,7 +823,7 @@
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -839,91 +832,91 @@
         <v>15.6</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2">
         <v>135.6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>34.270000000000003</v>
+        <v>1.95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>5.5</v>
+        <v>19.88</v>
       </c>
       <c r="I4" s="2">
-        <v>47.77</v>
+        <v>23.78</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>13.95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2">
         <v>13.95</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>11.99</v>
@@ -935,30 +928,30 @@
         <v>5.5</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2">
         <v>17.489999999999998</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>849</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -967,18 +960,18 @@
         <v>110.37</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2">
         <v>959.37</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="8">
         <v>1094.97</v>
@@ -986,16 +979,16 @@
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="8">
-        <v>150.5</v>
+        <v>129.51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,12 +996,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>1245.47</v>
+        <v>1224.48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="8">
         <v>75.64</v>
@@ -1020,11 +1013,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" r:id="rId6"/>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,27 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balib\Desktop\CENG317\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0271CE0F-3841-47BE-9F0C-D0B363C2FCD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{689D040B-A312-4A80-8C32-3A88EB4C145D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71282FDD-1BCD-4458-9F15-7F087C8789F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Total</t>
   </si>
@@ -90,9 +95,25 @@
 (SEN-11574)</t>
   </si>
   <si>
+    <t>Pulse Sensor Board
+24-inch Color-Coded Cable with Standard Male Headers
+Ear Clip for Earlobe Heart Rate Measurement
+Velcro Finger Strap
+Transparent Stickers to Protect Sensor</t>
+  </si>
+  <si>
+    <t>https://www.robotshop.com/ca/en/checkout/onepage/</t>
+  </si>
+  <si>
     <t>https://www.amazon.ca/Adafruit-MCP3008-8-Channel-10-Bit-Interface-ADA856/dp/B00NAY3RB2/</t>
   </si>
   <si>
+    <t xml:space="preserve">                Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 No</t>
+  </si>
+  <si>
     <t>Adafruit MCP3008-8-Channel 10-Bit ADC with SPI Interface [ADA856]</t>
   </si>
   <si>
@@ -130,28 +151,6 @@
   </si>
   <si>
     <t>USD to CAD</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BALTEJ BAL</t>
-  </si>
-  <si>
-    <t>N01166978</t>
-  </si>
-  <si>
-    <t>https://www.iphacogoods.com/1pcs-heart-rate-pulse-sensor-pulsesensor-sensor-module-for-arduino-new-p-275826.htm</t>
-  </si>
-  <si>
-    <t>Pulse Sensor Board
-24-inch Color-Coded Cable with Standard Male Header</t>
   </si>
 </sst>
 </file>
@@ -161,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,20 +188,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,37 +210,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -270,24 +239,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -305,24 +257,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -340,6 +275,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -357,20 +293,45 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J7">
-  <autoFilter ref="A1:J7" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E74F6D-F32C-4268-A795-5CA306B0B6AE}" name="Table1" displayName="Table1" ref="A1:J7">
+  <autoFilter ref="A1:J7" xr:uid="{C1E221F4-4790-4E0A-8C3E-413431CCD583}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -400,26 +361,26 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name " totalsRowLabel="Total" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier " dataDxfId="7" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Price/Unit(CAD)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price/Unit(USD)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Taxes"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Shipping"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Subtotal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owned" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{6539FD5F-FB38-4427-8DAE-2B689DE850C1}" name="Name " totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{76432927-9506-4E97-973C-4B1D1EAC35B2}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{85B5EE60-648D-48AD-A244-0F8B26D763CB}" name="Supplier "/>
+    <tableColumn id="4" xr3:uid="{53A4FFD1-41FF-48CF-BE78-CF652A7C8D4E}" name="Price/Unit(CAD)"/>
+    <tableColumn id="5" xr3:uid="{1CBD8995-5321-4140-B0AD-F09140D248DA}" name="Price/Unit(USD)"/>
+    <tableColumn id="6" xr3:uid="{37E7EC16-4777-41C3-8C66-4DE1062744AF}" name="Quantity"/>
+    <tableColumn id="7" xr3:uid="{804AA2C6-56AA-4772-8C56-1433BF94F925}" name="Taxes"/>
+    <tableColumn id="8" xr3:uid="{7566226C-D35A-49D6-AE1F-A560A12CDA5B}" name="Shipping"/>
+    <tableColumn id="9" xr3:uid="{CD88D2E9-4A73-4E90-874D-6ACEEA94C0BA}" name="Subtotal"/>
+    <tableColumn id="10" xr3:uid="{F5F0FED8-7C62-48FF-8274-B0217CF62D15}" name="Owned"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="G8:H11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6760934D-DE04-4B09-979E-C120272715E9}" name="Table3" displayName="Table3" ref="H8:I11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Total Owned" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2E5F2DFC-8FA1-4862-B5D9-A54098A5603B}" name="Total Owned" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{25AAA4AB-1D91-48BE-AFD9-8E0F87CB48F6}" name="Column2" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,38 +682,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A8E5BC-D60F-4A22-A647-8AC322A8DCCD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -778,252 +734,245 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3">
         <v>35</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>4.55</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>16.46</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>15.6</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3">
         <v>135.6</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>19.88</v>
-      </c>
-      <c r="I4" s="2">
-        <v>23.78</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>47.77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>13.95</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3">
+        <v>13.95</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2">
-        <v>13.95</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>11.99</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>5.5</v>
       </c>
       <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="J6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>849</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>110.37</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3">
         <v>959.37</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1094.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1094.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="I9" s="5">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1245.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="8">
-        <v>129.51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1224.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="I11" s="5">
         <v>75.64</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{178564EE-51BB-411F-92EC-30A4BD3DA959}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{325A27D7-F4AC-437B-9E98-DC252B202A17}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{2693F174-1C2B-40AF-9833-23BF8DE52D16}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{0FE77574-68D8-47E9-8F83-83348BA96581}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{E68987F3-6025-4273-9175-D9AA8C62DB5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" orientation="landscape" r:id="rId6"/>
   <tableParts count="2">
+    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>